--- a/Prototype 3 RevA/P#3RA-BOM.xlsx
+++ b/Prototype 3 RevA/P#3RA-BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simone/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simone/Documents/eagle/Tiles/Prototype 3 RevA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="440" windowWidth="25640" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="440" windowWidth="25640" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>BOM Tiles Prototype 3</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Price total</t>
   </si>
   <si>
-    <t>Pric total</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
     <t>C1,C2</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t xml:space="preserve">TMK107B7105KA-T </t>
   </si>
   <si>
-    <t xml:space="preserve">non mf </t>
-  </si>
-  <si>
     <t>GRM188R71E104KA01D</t>
   </si>
   <si>
@@ -326,9 +317,6 @@
     <t>ADXL345BCCZ-RL</t>
   </si>
   <si>
-    <t>Supplier reference</t>
-  </si>
-  <si>
     <t>963-TMK107B7105KA-T</t>
   </si>
   <si>
@@ -411,6 +399,15 @@
   </si>
   <si>
     <t>Twizzers</t>
+  </si>
+  <si>
+    <t>Supplier reference (mouser)</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>603-AF0603JR-0710KL</t>
   </si>
 </sst>
 </file>
@@ -440,9 +437,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -493,21 +488,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,660 +789,742 @@
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
     <col min="10" max="11" width="19.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>100</v>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>103</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>330</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="I12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1">
-        <v>330</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="I14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>111</v>
+      <c r="C16" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>112</v>
+      <c r="C17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>116</v>
+      <c r="C21" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
+      <c r="E29" s="1">
+        <v>470</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="1">
-        <v>470</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1458,88 +1532,94 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>68</v>
@@ -1547,42 +1627,21 @@
       <c r="F35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" tooltip="Click to view additional information on this product."/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Prototype 3 RevA/P#3RA-BOM.xlsx
+++ b/Prototype 3 RevA/P#3RA-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="440" windowWidth="25640" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="440" windowWidth="25640" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Prototype 3 RevA/P#3RA-BOM.xlsx
+++ b/Prototype 3 RevA/P#3RA-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="440" windowWidth="25640" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="9420" yWindow="2720" windowWidth="21840" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="133">
   <si>
     <t>BOM Tiles Prototype 3</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>603-AF0603JR-0710KL</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>Vibration motor</t>
+  </si>
+  <si>
+    <t>713-316040001</t>
+  </si>
+  <si>
+    <t>M+/M-</t>
+  </si>
+  <si>
+    <t>45PIN LGA 0.5mm pitch</t>
+  </si>
+  <si>
+    <t>4x4mm 2 pin</t>
   </si>
 </sst>
 </file>
@@ -491,13 +509,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,19 +795,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="29.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
@@ -864,6 +884,9 @@
       <c r="I4" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J4" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -893,6 +916,9 @@
       <c r="I5" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J5" s="7">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -922,6 +948,9 @@
       <c r="I6" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J6" s="7">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -951,6 +980,9 @@
       <c r="I7" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J7" s="7">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -980,6 +1012,9 @@
       <c r="I8" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J8" s="7">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1009,6 +1044,9 @@
       <c r="I9" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J9" s="7">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1038,6 +1076,9 @@
       <c r="I10" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J10" s="7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1067,6 +1108,9 @@
       <c r="I11" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J11" s="7">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1096,6 +1140,9 @@
       <c r="I12" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J12" s="7">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1125,6 +1172,9 @@
       <c r="I13" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J13" s="7">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1154,6 +1204,9 @@
       <c r="I14" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J14" s="7">
+        <v>10.94</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1183,6 +1236,9 @@
       <c r="I15" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J15" s="7">
+        <v>32.74</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1212,6 +1268,9 @@
       <c r="I16" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J16" s="7">
+        <v>56.14</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1241,6 +1300,9 @@
       <c r="I17" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1259,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
@@ -1269,6 +1331,9 @@
       </c>
       <c r="I18" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="J18" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1287,6 +1352,9 @@
       <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>73</v>
       </c>
@@ -1295,6 +1363,9 @@
       </c>
       <c r="I19" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="J19" s="7">
+        <v>25.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1325,6 +1396,9 @@
       <c r="I20" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J20" s="7">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1354,113 +1428,120 @@
       <c r="I21" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="6">
+        <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="6">
+        <f>SUM(J4:J22)</f>
+        <v>303.99000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="1">
-        <v>470</v>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>97</v>
@@ -1471,25 +1552,25 @@
         <v>13</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="E30" s="1">
+        <v>470</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>116</v>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>97</v>
@@ -1497,28 +1578,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>97</v>
@@ -1532,22 +1613,22 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>97</v>
@@ -1555,28 +1636,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>97</v>
@@ -1584,25 +1665,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>97</v>
@@ -1615,20 +1699,20 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>121</v>
+      <c r="C35" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>97</v>
@@ -1636,6 +1720,32 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
     </row>
